--- a/new charts plotly/dlp_trends.xlsx
+++ b/new charts plotly/dlp_trends.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bagic.Dlpteam\Desktop\all oct data\1st to 7th Oct data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kad\Desktop\pythonnnnnnnn\new charts plotly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B48D3DE-96F4-4AB5-956B-0A7DE9E43D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6320"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>January</t>
   </si>
@@ -59,13 +60,22 @@
     <t>Month</t>
   </si>
   <si>
-    <t>No. of Incidents</t>
+    <t>Endpoint Incidents</t>
+  </si>
+  <si>
+    <t>Network Incidents</t>
+  </si>
+  <si>
+    <t>Overall Incidents</t>
+  </si>
+  <si>
+    <t>November</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,7 +111,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,26 +128,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -145,13 +140,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,165 +419,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" customWidth="1"/>
-    <col min="2" max="2" width="29.81640625" customWidth="1"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="29.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
-        <v>212794</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2">
+        <v>134489</v>
+      </c>
+      <c r="C2">
+        <v>12359</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
-        <v>176358</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3">
+        <v>114900</v>
+      </c>
+      <c r="C3">
+        <v>13406</v>
+      </c>
+      <c r="D3">
+        <v>368</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>209760</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4">
+        <v>136139</v>
+      </c>
+      <c r="C4">
+        <v>12418</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
-        <v>210174</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5">
+        <v>142133</v>
+      </c>
+      <c r="C5">
+        <v>13538</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
-        <v>201801</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6">
+        <v>136302</v>
+      </c>
+      <c r="C6">
+        <v>13611</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
-        <v>191696</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7">
+        <v>128223</v>
+      </c>
+      <c r="C7">
+        <v>15007</v>
+      </c>
+      <c r="D7">
+        <v>75</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
-        <v>220672</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8">
+        <v>132262</v>
+      </c>
+      <c r="C8">
+        <v>28082</v>
+      </c>
+      <c r="D8">
+        <v>283</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
-        <v>268008</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9">
+        <v>114476</v>
+      </c>
+      <c r="C9">
+        <v>108675</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
-        <v>344468</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10">
+        <v>156000</v>
+      </c>
+      <c r="C10">
+        <v>98304</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
-        <v>377700</v>
+      <c r="B11">
+        <v>220888</v>
+      </c>
+      <c r="C11">
+        <v>74768</v>
+      </c>
+      <c r="D11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>296086</v>
+      </c>
+      <c r="C12">
+        <v>44310</v>
+      </c>
+      <c r="D12">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
